--- a/chiloPro/sample-series/structure-books.xlsx
+++ b/chiloPro/sample-series/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="197">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -1230,6 +1230,17 @@
   </si>
   <si>
     <t>http://dev.chilos.jp/mod/quiz/view.php?id=1058&amp;amp;chiloflag=0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1894,7 +1905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1961,9 +1972,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2099,6 +2107,21 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2203,14 +2226,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2627,296 +2642,296 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
     <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="37" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="36" customWidth="1"/>
     <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="44">
+      <c r="B1" s="43">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" hidden="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" hidden="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="64" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="62"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>41530</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="66"/>
     </row>
     <row r="12" spans="1:5" ht="114">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="142.5">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="76" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="73"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="73"/>
+      <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2941,7 +2956,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2956,7 +2971,7 @@
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -2970,13 +2985,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.75" thickTop="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2987,41 +3002,41 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="128.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="D6" s="10"/>
-      <c r="E6" s="55"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
@@ -3031,32 +3046,32 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3110,7 +3125,7 @@
       <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3136,20 +3151,20 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="35" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
@@ -3162,8 +3177,8 @@
       <c r="C3" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="50" t="b">
-        <v>1</v>
+      <c r="D3" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>127</v>
@@ -3193,8 +3208,8 @@
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="50" t="b">
-        <v>1</v>
+      <c r="D4" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>131</v>
@@ -3224,8 +3239,8 @@
       <c r="C5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="50" t="b">
-        <v>1</v>
+      <c r="D5" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>135</v>
@@ -3255,8 +3270,8 @@
       <c r="C6" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="50" t="b">
-        <v>1</v>
+      <c r="D6" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>139</v>
@@ -3286,8 +3301,8 @@
       <c r="C7" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="50" t="b">
-        <v>1</v>
+      <c r="D7" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>143</v>
@@ -3317,8 +3332,8 @@
       <c r="C8" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="50" t="b">
-        <v>1</v>
+      <c r="D8" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>147</v>
@@ -3348,8 +3363,8 @@
       <c r="C9" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="50" t="b">
-        <v>1</v>
+      <c r="D9" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>152</v>
@@ -3379,8 +3394,8 @@
       <c r="C10" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="50" t="b">
-        <v>1</v>
+      <c r="D10" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>157</v>
@@ -3410,8 +3425,8 @@
       <c r="C11" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="50" t="b">
-        <v>1</v>
+      <c r="D11" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>163</v>
@@ -3441,8 +3456,8 @@
       <c r="C12" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="50" t="b">
-        <v>1</v>
+      <c r="D12" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>168</v>
@@ -3472,8 +3487,8 @@
       <c r="C13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="50" t="b">
-        <v>1</v>
+      <c r="D13" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>173</v>
@@ -3503,8 +3518,8 @@
       <c r="C14" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="50" t="b">
-        <v>1</v>
+      <c r="D14" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>178</v>
@@ -3534,8 +3549,8 @@
       <c r="C15" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="50" t="b">
-        <v>1</v>
+      <c r="D15" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>183</v>
@@ -3565,8 +3580,8 @@
       <c r="C16" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="50" t="b">
-        <v>1</v>
+      <c r="D16" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>188</v>
@@ -3594,7 +3609,7 @@
         <v>192</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="17" t="s">
         <v>193</v>
       </c>
@@ -3605,116 +3620,116 @@
       <c r="J17" s="16"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" s="26" customFormat="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
+    <row r="18" spans="1:11" s="25" customFormat="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1" ht="108">
-      <c r="A19" s="51" t="s">
+    <row r="19" spans="1:11" s="53" customFormat="1" ht="108">
+      <c r="A19" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="53"/>
-    </row>
-    <row r="20" spans="1:11" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="D20" s="59"/>
-      <c r="I20" s="92" t="s">
+      <c r="K19" s="52"/>
+    </row>
+    <row r="20" spans="1:11" s="57" customFormat="1" ht="36" customHeight="1">
+      <c r="D20" s="58"/>
+      <c r="I20" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="92"/>
-      <c r="K20" s="60"/>
-    </row>
-    <row r="21" spans="1:11" s="22" customFormat="1">
-      <c r="D21" s="23"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="1:11" s="22" customFormat="1">
-      <c r="D22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="59"/>
+    </row>
+    <row r="21" spans="1:11" s="21" customFormat="1">
+      <c r="D21" s="22"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="1:11" s="21" customFormat="1">
+      <c r="D22" s="22"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
     <mergeCell ref="B23:E29"/>
     <mergeCell ref="I20:J20"/>
@@ -3724,7 +3739,7 @@
     <hyperlink ref="E17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -3760,7 +3775,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -3788,7 +3803,7 @@
       <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3814,27 +3829,27 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="35" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="50"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -3847,7 +3862,7 @@
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="50"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -3860,7 +3875,7 @@
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="50"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -3872,7 +3887,7 @@
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="50"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -3884,7 +3899,7 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="50"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -3896,7 +3911,7 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="50"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -3908,7 +3923,7 @@
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="50"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="17"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -3920,7 +3935,7 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="50"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="17"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -3932,7 +3947,7 @@
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="50"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -3944,7 +3959,7 @@
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="50"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -3952,113 +3967,113 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:11" s="26" customFormat="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+    <row r="13" spans="1:11" s="25" customFormat="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
       <c r="K13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="54" customFormat="1" ht="108">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:11" s="53" customFormat="1" ht="108">
+      <c r="A14" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="D15" s="59"/>
-      <c r="I15" s="92" t="s">
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" s="57" customFormat="1" ht="36" customHeight="1">
+      <c r="D15" s="58"/>
+      <c r="I15" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="92"/>
-      <c r="K15" s="60"/>
-    </row>
-    <row r="16" spans="1:11" s="22" customFormat="1">
-      <c r="D16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" s="22" customFormat="1">
-      <c r="D17" s="23"/>
-      <c r="K17" s="24"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="59"/>
+    </row>
+    <row r="16" spans="1:11" s="21" customFormat="1">
+      <c r="D16" s="22"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" s="21" customFormat="1">
+      <c r="D17" s="22"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4101,9 +4116,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -4111,13 +4124,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4125,8 +4138,8 @@
       <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="20" t="b">
-        <v>1</v>
+      <c r="B2" s="63" t="s">
+        <v>195</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>11</v>
@@ -4134,7 +4147,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">
@@ -4177,6 +4190,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/chiloPro/sample-series/structure-books.xlsx
+++ b/chiloPro/sample-series/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="書籍構成シート" sheetId="38" r:id="rId4"/>
     <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -176,16 +176,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初版日</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>著作権者</t>
     <rPh sb="0" eb="4">
       <t>チョサクケンシャ</t>
@@ -603,9 +593,6 @@
   </si>
   <si>
     <t>「必要な素材」が保存されているフォルダが、構造ファイル（structure-books.xlsx）と同じ場所に保存されている場合は、記載する必要はありません。</t>
-  </si>
-  <si>
-    <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
   </si>
   <si>
     <t>input-path</t>
@@ -1241,6 +1228,20 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初版発行日</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identifierに設定されます。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2635,7 +2636,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2648,188 +2649,188 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="43">
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" hidden="1">
       <c r="A2" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" hidden="1">
       <c r="A3" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5">
       <c r="A4" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5">
       <c r="A5" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5">
       <c r="A6" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="45">
         <v>41530</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="66"/>
     </row>
     <row r="12" spans="1:5" ht="114">
       <c r="A12" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="142.5">
       <c r="A13" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5">
       <c r="A14" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -2837,83 +2838,83 @@
         <v>0</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="76"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
       <c r="A22" s="67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="68"/>
       <c r="C22" s="69"/>
@@ -2972,7 +2973,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>24</v>
@@ -2986,19 +2987,19 @@
     </row>
     <row r="2" spans="1:5" ht="57.75" thickTop="1">
       <c r="A2" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="E2" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.1" customHeight="1">
@@ -3010,19 +3011,19 @@
     </row>
     <row r="4" spans="1:5" ht="128.25">
       <c r="A4" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5">
@@ -3031,7 +3032,7 @@
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3047,7 +3048,7 @@
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="79"/>
@@ -3147,18 +3148,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="48"/>
       <c r="E2" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -3172,26 +3173,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>11</v>
@@ -3203,26 +3204,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>11</v>
@@ -3234,26 +3235,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>11</v>
@@ -3265,26 +3266,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>140</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>11</v>
@@ -3296,26 +3297,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>11</v>
@@ -3327,26 +3328,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>11</v>
@@ -3358,26 +3359,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>11</v>
@@ -3389,26 +3390,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>11</v>
@@ -3420,26 +3421,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>11</v>
@@ -3451,26 +3452,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>11</v>
@@ -3482,26 +3483,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>175</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>11</v>
@@ -3513,26 +3514,26 @@
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>11</v>
@@ -3544,26 +3545,26 @@
         <v>1</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>11</v>
@@ -3575,26 +3576,26 @@
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>11</v>
@@ -3606,12 +3607,12 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="62"/>
       <c r="E17" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -3632,46 +3633,46 @@
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="53" customFormat="1" ht="108">
       <c r="A19" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="C19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="D19" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="E19" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="50" t="s">
+      <c r="G19" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="H19" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="50" t="s">
+      <c r="J19" s="50" t="s">
         <v>54</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>55</v>
       </c>
       <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11" s="57" customFormat="1" ht="36" customHeight="1">
       <c r="D20" s="58"/>
       <c r="I20" s="95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J20" s="95"/>
       <c r="K20" s="59"/>
@@ -3686,7 +3687,7 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="B23" s="86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
@@ -3775,7 +3776,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -3825,7 +3826,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3836,7 +3837,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="48"/>
       <c r="E2" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
@@ -3979,46 +3980,46 @@
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="53" customFormat="1" ht="108">
       <c r="A14" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="C14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="D14" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="E14" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="50" t="s">
+      <c r="G14" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="H14" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="50" t="s">
+      <c r="J14" s="50" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" s="50" t="s">
-        <v>55</v>
       </c>
       <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" s="57" customFormat="1" ht="36" customHeight="1">
       <c r="D15" s="58"/>
       <c r="I15" s="95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="59"/>
@@ -4033,7 +4034,7 @@
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
       <c r="B18" s="86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
@@ -4139,7 +4140,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>11</v>
@@ -4147,7 +4148,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">

--- a/chiloPro/sample-series/structure-books.xlsx
+++ b/chiloPro/sample-series/structure-books.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="198">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -1242,6 +1242,10 @@
   </si>
   <si>
     <t>epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identifierに設定されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>001_cover_image_1.png</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3159,7 +3163,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="48"/>
       <c r="E2" s="34" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
